--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4257.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4257.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6348,15 +6349,367 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.10%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6366,13 +6719,6 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6382,13 +6728,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6398,13 +6737,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6414,13 +6746,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6428,15 +6753,14 @@
           <t>4452</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6446,15 +6770,14 @@
           <t>4453</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6464,15 +6787,14 @@
           <t>4455</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -6482,15 +6804,14 @@
           <t>4563</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6502,13 +6823,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6516,23 +6830,14 @@
           <t>4605</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6542,27 +6847,14 @@
           <t>4608</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.37%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6572,15 +6864,14 @@
           <t>4614</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -6592,13 +6883,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6606,27 +6890,14 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.10%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -6636,17 +6907,12 @@
           <t>4669</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6656,13 +6922,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6670,17 +6929,12 @@
           <t>4676</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6688,25 +6942,12 @@
           <t>4735</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6716,13 +6957,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4257.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4257.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -617,7 +616,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3656,7 +3655,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6349,6 +6348,10 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6361,6 +6364,10 @@
           <t>4337</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6373,6 +6380,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6385,6 +6396,10 @@
           <t>4353</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6397,6 +6412,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6412,6 +6431,9 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6427,6 +6449,9 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6442,6 +6467,9 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6457,6 +6485,9 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6469,6 +6500,10 @@
           <t>4568</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6494,6 +6529,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6539,6 +6575,9 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6551,6 +6590,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6596,6 +6639,9 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6608,6 +6654,10 @@
           <t>4673</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6623,6 +6673,9 @@
       <c r="B19" t="n">
         <v>9</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6648,6 +6701,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6660,303 +6714,15 @@
           <t>4745</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4745</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4257.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4257.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>31/01/2014</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -651,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>12/12/2014</t>
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>17/12/2014</t>
@@ -797,6 +800,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>19/12/2014</t>
@@ -896,6 +900,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -943,6 +948,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>24/03/2015</t>
@@ -1094,6 +1100,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>14/06/2015</t>
@@ -1141,6 +1148,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -1240,6 +1248,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>02/08/2015</t>
@@ -1287,6 +1296,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>04/08/2015</t>
@@ -1334,6 +1344,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -1381,6 +1392,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -1428,6 +1440,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -1475,6 +1488,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>05/01/2016</t>
@@ -1574,6 +1588,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>31/01/2016</t>
@@ -1985,6 +2000,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>31/12/2016</t>
@@ -2032,6 +2048,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>21/05/2017</t>
@@ -2131,6 +2148,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>23/12/2017</t>
@@ -2178,6 +2196,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -2225,6 +2244,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -2272,6 +2292,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -2371,6 +2392,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>05/01/2019</t>
@@ -2418,6 +2440,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>08/01/2019</t>
@@ -2465,6 +2488,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -2564,6 +2588,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -2611,6 +2636,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -2658,6 +2684,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2757,6 +2784,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2804,6 +2832,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -2903,6 +2932,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -3106,6 +3136,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -3153,6 +3184,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -3200,6 +3232,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -3247,6 +3280,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -3294,6 +3328,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>04/04/2022</t>
@@ -3445,6 +3480,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>15/07/2022</t>
@@ -3596,6 +3632,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -3643,6 +3680,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -3690,6 +3728,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -3789,6 +3828,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>31/03/2023</t>
@@ -6294,437 +6334,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.37%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.10%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4745</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4257.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4257.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>31/01/2014</t>
@@ -604,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -652,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>12/12/2014</t>
@@ -752,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>17/12/2014</t>
@@ -800,7 +797,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>19/12/2014</t>
@@ -900,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -948,7 +943,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>24/03/2015</t>
@@ -1100,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>14/06/2015</t>
@@ -1148,7 +1141,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -1248,7 +1240,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>02/08/2015</t>
@@ -1296,7 +1287,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>04/08/2015</t>
@@ -1344,7 +1334,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -1392,7 +1381,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -1440,7 +1428,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -1488,7 +1475,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>05/01/2016</t>
@@ -1588,7 +1574,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>31/01/2016</t>
@@ -2000,7 +1985,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>31/12/2016</t>
@@ -2048,7 +2032,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>21/05/2017</t>
@@ -2148,7 +2131,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>23/12/2017</t>
@@ -2196,7 +2178,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -2244,7 +2225,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -2292,7 +2272,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -2392,7 +2371,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>05/01/2019</t>
@@ -2440,7 +2418,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>08/01/2019</t>
@@ -2488,7 +2465,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -2588,7 +2564,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -2636,7 +2611,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -2684,7 +2658,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2784,7 +2757,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2832,7 +2804,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -2932,7 +2903,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -3136,7 +3106,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -3184,7 +3153,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -3232,7 +3200,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -3280,7 +3247,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -3328,7 +3294,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>04/04/2022</t>
@@ -3480,7 +3445,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>15/07/2022</t>
@@ -3632,7 +3596,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -3680,7 +3643,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -3728,7 +3690,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -3828,7 +3789,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>31/03/2023</t>
@@ -6334,4 +6294,1369 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3687</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3717</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3719</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3720</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3726</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3729</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3794</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3804</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3806</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3824</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13.68%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.67%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3971</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>7.83%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>6.10%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>